--- a/제품/라면류&과자류.xlsx
+++ b/제품/라면류&과자류.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Work\Tongup\제품\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="13620" yWindow="30" windowWidth="15225" windowHeight="12330"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="용기라면류" sheetId="2" r:id="rId2"/>
     <sheet name="과자류" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="317">
   <si>
     <t>상품코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1041,6 +1046,16 @@
   </si>
   <si>
     <t xml:space="preserve">식품&gt;과자&gt;스낵 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매가</t>
+  </si>
+  <si>
+    <t>옵션명</t>
+  </si>
+  <si>
+    <t>수량</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1052,7 +1067,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1090,16 +1105,35 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1120,6 +1154,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1131,7 +1195,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1176,6 +1240,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1671,7 +1747,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1679,10 +1755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J80"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1693,11 +1769,13 @@
     <col min="4" max="6" width="11.25" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.75" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="5" customWidth="1"/>
+    <col min="10" max="11" width="10.75" style="5" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1719,11 +1797,20 @@
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>2501</v>
       </c>
@@ -1745,14 +1832,21 @@
       <c r="G2" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="15">
+        <v>9240</v>
+      </c>
+      <c r="K2" s="5">
+        <f>표1[[#This Row],[박스단가]]/표1[[#This Row],[낱개단가]]</f>
+        <v>40</v>
+      </c>
+      <c r="L2">
         <v>50002385</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>3406</v>
       </c>
@@ -1774,14 +1868,21 @@
       <c r="G3" s="2">
         <v>3750</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="16">
+        <v>21780</v>
+      </c>
+      <c r="K3" s="5">
+        <f>표1[[#This Row],[박스단가]]/표1[[#This Row],[낱개단가]]</f>
+        <v>40.036764705882355</v>
+      </c>
+      <c r="L3" s="5">
         <v>50002385</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3443</v>
       </c>
@@ -1803,14 +1904,21 @@
       <c r="G4" s="2">
         <v>830</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="15">
+        <v>12166.000000000002</v>
+      </c>
+      <c r="K4" s="5">
+        <f>표1[[#This Row],[박스단가]]/표1[[#This Row],[낱개단가]]</f>
+        <v>20.009868421052634</v>
+      </c>
+      <c r="L4" s="5">
         <v>50002385</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>3440</v>
       </c>
@@ -1832,14 +1940,21 @@
       <c r="G5" s="2">
         <v>830</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="16">
+        <v>18249</v>
+      </c>
+      <c r="K5" s="5">
+        <f>표1[[#This Row],[박스단가]]/표1[[#This Row],[낱개단가]]</f>
+        <v>30.014802631578949</v>
+      </c>
+      <c r="L5" s="5">
         <v>50002385</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>3410</v>
       </c>
@@ -1861,14 +1976,14 @@
       <c r="G6" s="2">
         <v>4150</v>
       </c>
-      <c r="I6" s="5">
+      <c r="L6" s="5">
         <v>50002385</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="M6" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>3429</v>
       </c>
@@ -1890,14 +2005,14 @@
       <c r="G7" s="2">
         <v>4500</v>
       </c>
-      <c r="I7" s="5">
+      <c r="L7" s="5">
         <v>50002385</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="M7" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>3404</v>
       </c>
@@ -1919,14 +2034,14 @@
       <c r="G8" s="2">
         <v>4500</v>
       </c>
-      <c r="I8" s="5">
+      <c r="L8" s="5">
         <v>50002385</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>3403</v>
       </c>
@@ -1948,14 +2063,14 @@
       <c r="G9" s="2">
         <v>4500</v>
       </c>
-      <c r="I9" s="5">
+      <c r="L9" s="5">
         <v>50002385</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="M9" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>3413</v>
       </c>
@@ -1977,14 +2092,14 @@
       <c r="G10" s="2">
         <v>4500</v>
       </c>
-      <c r="I10" s="5">
+      <c r="L10" s="5">
         <v>50002385</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="M10" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>3408</v>
       </c>
@@ -2006,14 +2121,14 @@
       <c r="G11" s="2">
         <v>4750</v>
       </c>
-      <c r="I11" s="5">
+      <c r="L11" s="5">
         <v>50002385</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="M11" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>3407</v>
       </c>
@@ -2035,14 +2150,14 @@
       <c r="G12" s="2">
         <v>4750</v>
       </c>
-      <c r="I12" s="5">
+      <c r="L12" s="5">
         <v>50002385</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="M12" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>3405</v>
       </c>
@@ -2064,14 +2179,14 @@
       <c r="G13" s="2">
         <v>4750</v>
       </c>
-      <c r="I13" s="5">
+      <c r="L13" s="5">
         <v>50002385</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="M13" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>3400</v>
       </c>
@@ -2093,14 +2208,14 @@
       <c r="G14" s="2">
         <v>5250</v>
       </c>
-      <c r="I14" s="5">
+      <c r="L14" s="5">
         <v>50002385</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="M14" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>2420</v>
       </c>
@@ -2122,14 +2237,25 @@
       <c r="G15" s="2">
         <v>5250</v>
       </c>
-      <c r="I15" s="5">
+      <c r="L15" s="5">
         <v>50002385</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="M15" s="5" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N15">
+        <v>830</v>
+      </c>
+      <c r="O15">
+        <f>N15*20</f>
+        <v>16600</v>
+      </c>
+      <c r="P15">
+        <f>N15*25</f>
+        <v>20750</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>3422</v>
       </c>
@@ -2151,14 +2277,25 @@
       <c r="G16" s="2">
         <v>5750</v>
       </c>
-      <c r="I16" s="5">
+      <c r="L16" s="5">
         <v>50002385</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="M16" s="5" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N16">
+        <v>610</v>
+      </c>
+      <c r="O16" s="5">
+        <f>N16*20</f>
+        <v>12200</v>
+      </c>
+      <c r="P16" s="5">
+        <f>N16*25</f>
+        <v>15250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>3423</v>
       </c>
@@ -2180,14 +2317,14 @@
       <c r="G17" s="2">
         <v>5750</v>
       </c>
-      <c r="I17" s="5">
+      <c r="L17" s="5">
         <v>50002385</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="M17" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>3421</v>
       </c>
@@ -2209,14 +2346,14 @@
       <c r="G18" s="2">
         <v>5750</v>
       </c>
-      <c r="I18" s="5">
+      <c r="L18" s="5">
         <v>50002385</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="M18" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>2447</v>
       </c>
@@ -2238,14 +2375,14 @@
       <c r="G19" s="2">
         <v>4800</v>
       </c>
-      <c r="I19" s="5">
+      <c r="L19" s="5">
         <v>50002385</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="M19" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>2450</v>
       </c>
@@ -2267,14 +2404,14 @@
       <c r="G20" s="2">
         <v>6000</v>
       </c>
-      <c r="I20" s="5">
+      <c r="L20" s="5">
         <v>50002385</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="M20" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>2419</v>
       </c>
@@ -2296,14 +2433,14 @@
       <c r="G21" s="2">
         <v>6000</v>
       </c>
-      <c r="I21" s="5">
+      <c r="L21" s="5">
         <v>50002385</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="M21" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>2475</v>
       </c>
@@ -2325,14 +2462,14 @@
       <c r="G22" s="2">
         <v>6000</v>
       </c>
-      <c r="I22" s="5">
+      <c r="L22" s="5">
         <v>50002385</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="M22" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>3409</v>
       </c>
@@ -2354,14 +2491,14 @@
       <c r="G23" s="2">
         <v>6000</v>
       </c>
-      <c r="I23" s="5">
+      <c r="L23" s="5">
         <v>50002385</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="M23" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>3424</v>
       </c>
@@ -2383,14 +2520,14 @@
       <c r="G24" s="2">
         <v>6400</v>
       </c>
-      <c r="I24" s="5">
+      <c r="L24" s="5">
         <v>50002385</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="M24" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>2437</v>
       </c>
@@ -2412,14 +2549,14 @@
       <c r="G25" s="9">
         <v>1200</v>
       </c>
-      <c r="I25" s="5">
+      <c r="L25" s="5">
         <v>50002385</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="M25" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>2415</v>
       </c>
@@ -2441,14 +2578,14 @@
       <c r="G26" s="9">
         <v>1500</v>
       </c>
-      <c r="I26" s="5">
+      <c r="L26" s="5">
         <v>50002385</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="M26" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>2416</v>
       </c>
@@ -2470,14 +2607,14 @@
       <c r="G27" s="9">
         <v>1500</v>
       </c>
-      <c r="I27" s="5">
+      <c r="L27" s="5">
         <v>50002385</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="M27" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>2414</v>
       </c>
@@ -2499,14 +2636,14 @@
       <c r="G28" s="9">
         <v>1050</v>
       </c>
-      <c r="I28" s="5">
+      <c r="L28" s="5">
         <v>50002385</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="M28" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>2493</v>
       </c>
@@ -2528,14 +2665,14 @@
       <c r="G29" s="9">
         <v>1100</v>
       </c>
-      <c r="I29" s="5">
+      <c r="L29" s="5">
         <v>50002385</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="M29" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>3401</v>
       </c>
@@ -2557,14 +2694,14 @@
       <c r="G30" s="2">
         <v>900</v>
       </c>
-      <c r="I30" s="5">
+      <c r="L30" s="5">
         <v>50002385</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="M30" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>2449</v>
       </c>
@@ -2586,14 +2723,14 @@
       <c r="G31" s="9">
         <v>1150</v>
       </c>
-      <c r="I31" s="5">
+      <c r="L31" s="5">
         <v>50002385</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="M31" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>2505</v>
       </c>
@@ -2615,14 +2752,14 @@
       <c r="G32" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I32" s="5">
+      <c r="L32" s="5">
         <v>50002385</v>
       </c>
-      <c r="J32" s="5" t="s">
+      <c r="M32" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>2502</v>
       </c>
@@ -2644,14 +2781,14 @@
       <c r="G33" s="9">
         <v>1600</v>
       </c>
-      <c r="I33" s="5">
+      <c r="L33" s="5">
         <v>50002385</v>
       </c>
-      <c r="J33" s="5" t="s">
+      <c r="M33" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>5970</v>
       </c>
@@ -2673,14 +2810,14 @@
       <c r="G34" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I34" s="5">
+      <c r="L34" s="5">
         <v>50002385</v>
       </c>
-      <c r="J34" s="5" t="s">
+      <c r="M34" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>6013</v>
       </c>
@@ -2702,14 +2839,14 @@
       <c r="G35" s="2">
         <v>3800</v>
       </c>
-      <c r="I35" s="5">
+      <c r="L35" s="5">
         <v>50002385</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="M35" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>5923</v>
       </c>
@@ -2731,14 +2868,14 @@
       <c r="G36" s="2">
         <v>4250</v>
       </c>
-      <c r="I36" s="5">
+      <c r="L36" s="5">
         <v>50002385</v>
       </c>
-      <c r="J36" s="5" t="s">
+      <c r="M36" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>5926</v>
       </c>
@@ -2760,14 +2897,14 @@
       <c r="G37" s="2">
         <v>3250</v>
       </c>
-      <c r="I37" s="5">
+      <c r="L37" s="5">
         <v>50002385</v>
       </c>
-      <c r="J37" s="5" t="s">
+      <c r="M37" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>6014</v>
       </c>
@@ -2789,14 +2926,14 @@
       <c r="G38" s="2">
         <v>3750</v>
       </c>
-      <c r="I38" s="5">
+      <c r="L38" s="5">
         <v>50002385</v>
       </c>
-      <c r="J38" s="5" t="s">
+      <c r="M38" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>5897</v>
       </c>
@@ -2818,14 +2955,14 @@
       <c r="G39" s="2">
         <v>4000</v>
       </c>
-      <c r="I39" s="5">
+      <c r="L39" s="5">
         <v>50002385</v>
       </c>
-      <c r="J39" s="5" t="s">
+      <c r="M39" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>6028</v>
       </c>
@@ -2847,14 +2984,14 @@
       <c r="G40" s="2">
         <v>5000</v>
       </c>
-      <c r="I40" s="5">
+      <c r="L40" s="5">
         <v>50002385</v>
       </c>
-      <c r="J40" s="5" t="s">
+      <c r="M40" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>6023</v>
       </c>
@@ -2876,14 +3013,14 @@
       <c r="G41" s="2">
         <v>5000</v>
       </c>
-      <c r="I41" s="5">
+      <c r="L41" s="5">
         <v>50002385</v>
       </c>
-      <c r="J41" s="5" t="s">
+      <c r="M41" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>6007</v>
       </c>
@@ -2905,14 +3042,14 @@
       <c r="G42" s="2">
         <v>5000</v>
       </c>
-      <c r="I42" s="5">
+      <c r="L42" s="5">
         <v>50002385</v>
       </c>
-      <c r="J42" s="5" t="s">
+      <c r="M42" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>6025</v>
       </c>
@@ -2934,14 +3071,14 @@
       <c r="G43" s="2">
         <v>5000</v>
       </c>
-      <c r="I43" s="5">
+      <c r="L43" s="5">
         <v>50002385</v>
       </c>
-      <c r="J43" s="5" t="s">
+      <c r="M43" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>6011</v>
       </c>
@@ -2963,14 +3100,14 @@
       <c r="G44" s="2">
         <v>5000</v>
       </c>
-      <c r="I44" s="5">
+      <c r="L44" s="5">
         <v>50002385</v>
       </c>
-      <c r="J44" s="5" t="s">
+      <c r="M44" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>6034</v>
       </c>
@@ -2992,14 +3129,14 @@
       <c r="G45" s="2">
         <v>6000</v>
       </c>
-      <c r="I45" s="5">
+      <c r="L45" s="5">
         <v>50002385</v>
       </c>
-      <c r="J45" s="5" t="s">
+      <c r="M45" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>6035</v>
       </c>
@@ -3021,14 +3158,14 @@
       <c r="G46" s="2">
         <v>6000</v>
       </c>
-      <c r="I46" s="5">
+      <c r="L46" s="5">
         <v>50002385</v>
       </c>
-      <c r="J46" s="5" t="s">
+      <c r="M46" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>6038</v>
       </c>
@@ -3050,14 +3187,14 @@
       <c r="G47" s="2">
         <v>6000</v>
       </c>
-      <c r="I47" s="5">
+      <c r="L47" s="5">
         <v>50002385</v>
       </c>
-      <c r="J47" s="5" t="s">
+      <c r="M47" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>6042</v>
       </c>
@@ -3079,14 +3216,14 @@
       <c r="G48" s="2">
         <v>5200</v>
       </c>
-      <c r="I48" s="5">
+      <c r="L48" s="5">
         <v>50002385</v>
       </c>
-      <c r="J48" s="5" t="s">
+      <c r="M48" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>7898</v>
       </c>
@@ -3108,14 +3245,14 @@
       <c r="G49" s="2">
         <v>900</v>
       </c>
-      <c r="I49" s="5">
+      <c r="L49" s="5">
         <v>50002385</v>
       </c>
-      <c r="J49" s="5" t="s">
+      <c r="M49" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>7900</v>
       </c>
@@ -3137,14 +3274,14 @@
       <c r="G50" s="2">
         <v>950</v>
       </c>
-      <c r="I50" s="5">
+      <c r="L50" s="5">
         <v>50002385</v>
       </c>
-      <c r="J50" s="5" t="s">
+      <c r="M50" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>7932</v>
       </c>
@@ -3166,14 +3303,14 @@
       <c r="G51" s="2">
         <v>1500</v>
       </c>
-      <c r="I51" s="5">
+      <c r="L51" s="5">
         <v>50002385</v>
       </c>
-      <c r="J51" s="5" t="s">
+      <c r="M51" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>7933</v>
       </c>
@@ -3195,14 +3332,14 @@
       <c r="G52" s="2">
         <v>1500</v>
       </c>
-      <c r="I52" s="5">
+      <c r="L52" s="5">
         <v>50002385</v>
       </c>
-      <c r="J52" s="5" t="s">
+      <c r="M52" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>7896</v>
       </c>
@@ -3224,14 +3361,14 @@
       <c r="G53" s="2">
         <v>850</v>
       </c>
-      <c r="I53" s="5">
+      <c r="L53" s="5">
         <v>50002385</v>
       </c>
-      <c r="J53" s="5" t="s">
+      <c r="M53" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>7916</v>
       </c>
@@ -3253,14 +3390,14 @@
       <c r="G54" s="2">
         <v>850</v>
       </c>
-      <c r="I54" s="5">
+      <c r="L54" s="5">
         <v>50002385</v>
       </c>
-      <c r="J54" s="5" t="s">
+      <c r="M54" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>7917</v>
       </c>
@@ -3282,14 +3419,14 @@
       <c r="G55" s="2">
         <v>1000</v>
       </c>
-      <c r="I55" s="5">
+      <c r="L55" s="5">
         <v>50002385</v>
       </c>
-      <c r="J55" s="5" t="s">
+      <c r="M55" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>7893</v>
       </c>
@@ -3311,14 +3448,14 @@
       <c r="G56" s="2">
         <v>1000</v>
       </c>
-      <c r="I56" s="5">
+      <c r="L56" s="5">
         <v>50002385</v>
       </c>
-      <c r="J56" s="5" t="s">
+      <c r="M56" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>7936</v>
       </c>
@@ -3340,14 +3477,14 @@
       <c r="G57" s="2">
         <v>1600</v>
       </c>
-      <c r="I57" s="5">
+      <c r="L57" s="5">
         <v>50002385</v>
       </c>
-      <c r="J57" s="5" t="s">
+      <c r="M57" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>7939</v>
       </c>
@@ -3369,14 +3506,14 @@
       <c r="G58" s="2">
         <v>700</v>
       </c>
-      <c r="I58" s="5">
+      <c r="L58" s="5">
         <v>50002385</v>
       </c>
-      <c r="J58" s="5" t="s">
+      <c r="M58" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>5743</v>
       </c>
@@ -3398,14 +3535,14 @@
       <c r="G59" s="2">
         <v>1600</v>
       </c>
-      <c r="I59" s="5">
+      <c r="L59" s="5">
         <v>50002385</v>
       </c>
-      <c r="J59" s="5" t="s">
+      <c r="M59" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>6012</v>
       </c>
@@ -3427,14 +3564,14 @@
       <c r="G60" s="2">
         <v>1000</v>
       </c>
-      <c r="I60" s="5">
+      <c r="L60" s="5">
         <v>50002385</v>
       </c>
-      <c r="J60" s="5" t="s">
+      <c r="M60" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>5791</v>
       </c>
@@ -3456,14 +3593,14 @@
       <c r="G61" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I61" s="5">
+      <c r="L61" s="5">
         <v>50002385</v>
       </c>
-      <c r="J61" s="5" t="s">
+      <c r="M61" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>5869</v>
       </c>
@@ -3485,14 +3622,14 @@
       <c r="G62" s="2">
         <v>750</v>
       </c>
-      <c r="I62" s="5">
+      <c r="L62" s="5">
         <v>50002385</v>
       </c>
-      <c r="J62" s="5" t="s">
+      <c r="M62" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>5792</v>
       </c>
@@ -3514,14 +3651,14 @@
       <c r="G63" s="2">
         <v>950</v>
       </c>
-      <c r="I63" s="5">
+      <c r="L63" s="5">
         <v>50002385</v>
       </c>
-      <c r="J63" s="5" t="s">
+      <c r="M63" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>5790</v>
       </c>
@@ -3543,14 +3680,14 @@
       <c r="G64" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I64" s="5">
+      <c r="L64" s="5">
         <v>50002385</v>
       </c>
-      <c r="J64" s="5" t="s">
+      <c r="M64" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>5802</v>
       </c>
@@ -3572,14 +3709,14 @@
       <c r="G65" s="2">
         <v>720</v>
       </c>
-      <c r="I65" s="5">
+      <c r="L65" s="5">
         <v>50002385</v>
       </c>
-      <c r="J65" s="5" t="s">
+      <c r="M65" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>5803</v>
       </c>
@@ -3601,14 +3738,14 @@
       <c r="G66" s="2">
         <v>720</v>
       </c>
-      <c r="I66" s="5">
+      <c r="L66" s="5">
         <v>50002385</v>
       </c>
-      <c r="J66" s="5" t="s">
+      <c r="M66" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>5811</v>
       </c>
@@ -3630,14 +3767,14 @@
       <c r="G67" s="2">
         <v>700</v>
       </c>
-      <c r="I67" s="5">
+      <c r="L67" s="5">
         <v>50002385</v>
       </c>
-      <c r="J67" s="5" t="s">
+      <c r="M67" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>5822</v>
       </c>
@@ -3659,68 +3796,89 @@
       <c r="G68" s="2">
         <v>650</v>
       </c>
-      <c r="I68" s="5">
+      <c r="L68" s="5">
         <v>50002385</v>
       </c>
-      <c r="J68" s="5" t="s">
+      <c r="M68" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G69" s="8"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G70" s="8"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G71" s="8"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G72" s="8"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G73" s="8"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G74" s="8"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G75" s="8"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G76" s="8"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G77" s="8"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G78" s="8"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G79" s="8"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G80" s="8"/>
     </row>
   </sheetData>
@@ -3737,7 +3895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -5689,7 +5847,7 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
